--- a/notebooks/PRF1/input/PRF1_FHL2_individuals.xlsx
+++ b/notebooks/PRF1/input/PRF1_FHL2_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/PRF1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9868D54A-DAE6-C249-8EAE-C2C46F415D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C9E2AA-E06A-F442-AD1E-437A26EE0C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="5780" windowWidth="35760" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="91">
   <si>
     <t>PMID</t>
   </si>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t>p.W374G</t>
+  </si>
+  <si>
+    <t>Increased lactate dehydrogenase activity</t>
+  </si>
+  <si>
+    <t>HP:0025435</t>
   </si>
 </sst>
 </file>
@@ -660,15 +666,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:Q12"/>
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,53 +738,56 @@
       <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -843,52 +852,55 @@
         <v>34</v>
       </c>
       <c r="V2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W2" t="s">
         <v>44</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>46</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>67</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>69</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>71</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -947,7 +959,7 @@
         <v>42</v>
       </c>
       <c r="V3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="W3" t="s">
         <v>42</v>
@@ -965,7 +977,7 @@
         <v>42</v>
       </c>
       <c r="AB3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AC3" t="s">
         <v>57</v>
@@ -989,10 +1001,13 @@
         <v>57</v>
       </c>
       <c r="AJ3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1047,11 +1062,26 @@
       <c r="U4" t="s">
         <v>32</v>
       </c>
+      <c r="V4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" t="s">
+        <v>79</v>
+      </c>
       <c r="X4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y4" t="s">
         <v>76</v>
       </c>
+      <c r="Z4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>79</v>
+      </c>
       <c r="AB4" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="s">
         <v>76</v>
@@ -1065,14 +1095,17 @@
       <c r="AF4" t="s">
         <v>76</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AG4" t="s">
         <v>76</v>
       </c>
       <c r="AJ4" t="s">
         <v>76</v>
       </c>
+      <c r="AK4" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -1133,16 +1166,34 @@
       <c r="U5" t="s">
         <v>86</v>
       </c>
+      <c r="V5" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
       <c r="X5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5" t="s">
         <v>86</v>
       </c>
+      <c r="Z5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>79</v>
+      </c>
       <c r="AB5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AC5" t="s">
         <v>86</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AD5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG5" t="s">
         <v>86</v>
       </c>
     </row>
